--- a/Gviz_test/splai_col2a1.xlsx
+++ b/Gviz_test/splai_col2a1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD_480GB/workspace/Github/R-Projects/Gviz_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59A06B0-AFE4-B44E-A962-1C4D867BBD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D59B8D-DC5B-4C4D-8783-596BC36299CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="64000" windowHeight="34060" xr2:uid="{1D3DF8E2-979C-0B49-B4BD-08E7C095E8C5}"/>
   </bookViews>
